--- a/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>CBR</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Reno Flow 2</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-584994432"/>
-        <c:axId val="-584988992"/>
+        <c:axId val="2028584640"/>
+        <c:axId val="2028586816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-584994432"/>
+        <c:axId val="2028584640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584988992"/>
+        <c:crossAx val="2028586816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-584988992"/>
+        <c:axId val="2028586816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584994432"/>
+        <c:crossAx val="2028584640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-584993888"/>
-        <c:axId val="-584989536"/>
+        <c:axId val="2028579744"/>
+        <c:axId val="2028574304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-584993888"/>
+        <c:axId val="2028579744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584989536"/>
+        <c:crossAx val="2028574304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-584989536"/>
+        <c:axId val="2028574304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.5"/>
@@ -1316,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-584993888"/>
+        <c:crossAx val="2028579744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>34.278471910100002</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.48266440831106461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.982971255700001</c:v>
+                  <c:v>65.700330608499996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.010187500000001</c:v>
+                  <c:v>65.866358881899998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.978353224799999</c:v>
+                  <c:v>65.673971958400003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.987613000500001</c:v>
+                  <c:v>65.728492530599993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.065467619</c:v>
+                  <c:v>72.199368015399997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.904164524999999</c:v>
+                  <c:v>71.228796202500007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.4068169301</c:v>
+                  <c:v>74.247846743300002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.166956970699999</c:v>
+                  <c:v>72.806827496799997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.030653536300001</c:v>
+                  <c:v>71.968086956500002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.074225165600001</c:v>
+                  <c:v>78.747234042599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21.005404243899999</c:v>
+                  <c:v>65.840425463299994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.020740785299999</c:v>
+                  <c:v>65.929780586899994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0199903498</c:v>
+                  <c:v>65.926023529399998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.022488054299998</c:v>
+                  <c:v>65.942046724700006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.1267299129</c:v>
+                  <c:v>72.567306537500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8860432725</c:v>
+                  <c:v>71.1238104265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.1892371018</c:v>
+                  <c:v>72.939620339000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2187308534</c:v>
+                  <c:v>73.112337730899995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.096513429800002</c:v>
+                  <c:v>72.370277602499996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.1663312883</c:v>
+                  <c:v>79.146461538500006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2028584640"/>
-        <c:axId val="2028586816"/>
+        <c:axId val="1062257856"/>
+        <c:axId val="1062250784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2028584640"/>
+        <c:axId val="1062257856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028586816"/>
+        <c:crossAx val="1062250784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028586816"/>
+        <c:axId val="1062250784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028584640"/>
+        <c:crossAx val="1062257856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.982971255700001</c:v>
+                  <c:v>65.700330608499996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.010187500000001</c:v>
+                  <c:v>65.866358881899998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.978353224799999</c:v>
+                  <c:v>65.673971958400003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.987613000500001</c:v>
+                  <c:v>65.728492530599993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.065467619</c:v>
+                  <c:v>72.199368015399997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.904164524999999</c:v>
+                  <c:v>71.228796202500007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.4068169301</c:v>
+                  <c:v>74.247846743300002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.166956970699999</c:v>
+                  <c:v>72.806827496799997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.030653536300001</c:v>
+                  <c:v>71.968086956500002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.074225165600001</c:v>
+                  <c:v>78.747234042599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,34 +1057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21.005404243899999</c:v>
+                  <c:v>65.840425463299994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.020740785299999</c:v>
+                  <c:v>65.929780586899994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0199903498</c:v>
+                  <c:v>65.926023529399998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.022488054299998</c:v>
+                  <c:v>65.942046724700006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.1267299129</c:v>
+                  <c:v>72.567306537500002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8860432725</c:v>
+                  <c:v>71.1238104265</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.1892371018</c:v>
+                  <c:v>72.939620339000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2187308534</c:v>
+                  <c:v>73.112337730899995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.096513429800002</c:v>
+                  <c:v>72.370277602499996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.1663312883</c:v>
+                  <c:v>79.146461538500006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2028579744"/>
-        <c:axId val="2028574304"/>
+        <c:axId val="1062257312"/>
+        <c:axId val="1062249152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2028579744"/>
+        <c:axId val="1062257312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028574304"/>
+        <c:crossAx val="1062249152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,10 +1211,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028574304"/>
+        <c:axId val="1062249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20.5"/>
+          <c:max val="80"/>
+          <c:min val="65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1319,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028579744"/>
+        <c:crossAx val="1062257312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2845,7 +2846,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2869,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20.982971255700001</v>
+        <v>65.700330608499996</v>
       </c>
       <c r="C2" s="1">
-        <v>21.005404243899999</v>
+        <v>65.840425463299994</v>
       </c>
       <c r="D2" s="1">
         <v>22.393082553199999</v>
@@ -2884,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>21.010187500000001</v>
+        <v>65.866358881899998</v>
       </c>
       <c r="C3" s="1">
-        <v>21.020740785299999</v>
+        <v>65.929780586899994</v>
       </c>
       <c r="D3" s="1">
         <v>22.329324819100002</v>
@@ -2898,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20.978353224799999</v>
+        <v>65.673971958400003</v>
       </c>
       <c r="C4" s="1">
-        <v>21.0199903498</v>
+        <v>65.926023529399998</v>
       </c>
       <c r="D4" s="1">
         <v>22.278771282600001</v>
@@ -2912,10 +2913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20.987613000500001</v>
+        <v>65.728492530599993</v>
       </c>
       <c r="C5" s="1">
-        <v>21.022488054299998</v>
+        <v>65.942046724700006</v>
       </c>
       <c r="D5" s="1">
         <v>22.3562893617</v>
@@ -2926,10 +2927,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>22.065467619</v>
+        <v>72.199368015399997</v>
       </c>
       <c r="C6" s="1">
-        <v>22.1267299129</v>
+        <v>72.567306537500002</v>
       </c>
       <c r="D6" s="1">
         <v>26.9447842069</v>
@@ -2940,10 +2941,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21.904164524999999</v>
+        <v>71.228796202500007</v>
       </c>
       <c r="C7" s="1">
-        <v>21.8860432725</v>
+        <v>71.1238104265</v>
       </c>
       <c r="D7" s="1">
         <v>25.637403868</v>
@@ -2954,10 +2955,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>22.4068169301</v>
+        <v>74.247846743300002</v>
       </c>
       <c r="C8" s="1">
-        <v>22.1892371018</v>
+        <v>72.939620339000001</v>
       </c>
       <c r="D8" s="1">
         <v>27.122247160499999</v>
@@ -2968,10 +2969,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>22.166956970699999</v>
+        <v>72.806827496799997</v>
       </c>
       <c r="C9" s="1">
-        <v>22.2187308534</v>
+        <v>73.112337730899995</v>
       </c>
       <c r="D9" s="1">
         <v>26.392132075500001</v>
@@ -2982,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>22.030653536300001</v>
+        <v>71.968086956500002</v>
       </c>
       <c r="C10" s="1">
-        <v>22.096513429800002</v>
+        <v>72.370277602499996</v>
       </c>
       <c r="D10" s="1">
         <v>25.604055844800001</v>
@@ -2996,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>23.074225165600001</v>
+        <v>78.747234042599999</v>
       </c>
       <c r="C11" s="2">
-        <v>23.1663312883</v>
+        <v>79.146461538500006</v>
       </c>
       <c r="D11" s="2">
         <v>34.278471910100002</v>
@@ -3011,7 +3012,7 @@
       </c>
       <c r="C15">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.48266440831106461</v>
+        <v>0.4856957382954597</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/LatencyGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>CBR</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Reno Flow 2</t>
-  </si>
-  <si>
-    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -503,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1062257856"/>
-        <c:axId val="1062250784"/>
+        <c:axId val="-1258142288"/>
+        <c:axId val="-1258145552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1062257856"/>
+        <c:axId val="-1258142288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062250784"/>
+        <c:crossAx val="-1258145552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1062250784"/>
+        <c:axId val="-1258145552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -722,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062257856"/>
+        <c:crossAx val="-1258142288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1062257312"/>
-        <c:axId val="1062249152"/>
+        <c:axId val="-1258141744"/>
+        <c:axId val="-1258140656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1062257312"/>
+        <c:axId val="-1258141744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062249152"/>
+        <c:crossAx val="-1258140656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1062249152"/>
+        <c:axId val="-1258140656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1320,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1062257312"/>
+        <c:crossAx val="-1258141744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3006,15 +3003,6 @@
         <v>34.278471910100002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.4856957382954597</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
